--- a/Main Program (зубр)/АКБ ZUBR в РБ.xlsx
+++ b/Main Program (зубр)/АКБ ZUBR в РБ.xlsx
@@ -311,7 +311,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill/>
     </fill>
@@ -538,6 +538,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0098FB98"/>
         <bgColor rgb="0098FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1316,7 +1322,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1943,6 +1949,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2435,9 +2450,9 @@
           <t>185</t>
         </is>
       </c>
-      <c r="E3" s="214" t="inlineStr">
-        <is>
-          <t>165</t>
+      <c r="E3" s="260" t="inlineStr">
+        <is>
+          <t>207</t>
         </is>
       </c>
       <c r="F3" s="96" t="n">

--- a/Main Program (зубр)/АКБ ZUBR в РБ.xlsx
+++ b/Main Program (зубр)/АКБ ZUBR в РБ.xlsx
@@ -1322,7 +1322,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1959,6 +1959,12 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2452,7 +2458,7 @@
       </c>
       <c r="E3" s="260" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>334,93</t>
         </is>
       </c>
       <c r="F3" s="96" t="n">
@@ -2525,8 +2531,10 @@
           <t>175</t>
         </is>
       </c>
-      <c r="E4" s="197" t="n">
-        <v>157</v>
+      <c r="E4" s="261" t="inlineStr">
+        <is>
+          <t>196.30</t>
+        </is>
       </c>
       <c r="F4" s="106" t="n">
         <v>152</v>
